--- a/SabaShann/STUDEENT DETA.xlsx
+++ b/SabaShann/STUDEENT DETA.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cadd Mentor\Student_Class_Code\Sandeep_C Language_Classes\SabaShann\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21240853-9475-4545-B5DB-F52613A899C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A00BAA-67BD-4DBB-9E6C-9655768C6CF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20112" windowHeight="7752" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9708" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -916,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -2787,7 +2788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2842,4 +2843,18 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AC7870-FB57-49F8-8136-B9E7DB679313}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>